--- a/mainFile/main.xlsx
+++ b/mainFile/main.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="306">
   <si>
     <t xml:space="preserve">Номер лота / 
 Реестровый номер процедуры:   </t>
@@ -200,12 +200,6 @@
     <t xml:space="preserve">31.10.2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Стеллаж металлический ПРАКТИК "MS", 1850х1000х600 мм, 4 полки, MS 185/100х60/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Россия</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000888727</t>
   </si>
   <si>
@@ -215,63 +209,42 @@
     <t xml:space="preserve">31.12.2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Пластиковая воронка с сетчатым фильтром 160 мм STELS</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000951302</t>
   </si>
   <si>
     <t xml:space="preserve">Лопата совковая стальная, с деревянным черенком, длина лезвия 290 мм, ширина лезвия 247 мм, длина черенка 1500 мм</t>
   </si>
   <si>
-    <t xml:space="preserve">Совковая рельсовая лопата с черенком Gigant с ребрами жесткости GSS-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000956346</t>
   </si>
   <si>
     <t xml:space="preserve">Черенок для лопаты березовый, L=1500 мм, D=40 мм</t>
   </si>
   <si>
-    <t xml:space="preserve">Черенок для лопаты естественной влажности (40 мм; 1200-1250 мм; береза) СПЕЦ И-00766</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000989685</t>
   </si>
   <si>
     <t xml:space="preserve">Метла синтетическая плоская с черенком</t>
   </si>
   <si>
-    <t xml:space="preserve">Полипропиленовая плоская метла КЭС деревянный черенок</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001315206</t>
   </si>
   <si>
     <t xml:space="preserve">Колесо для строительной тачки, диаметр 380 мм, диаметр оси 20 мм, внешний диамент 203 мм, диаметр диска 8 мм, шина пневматическая с камерой 3 мм, подшипник</t>
   </si>
   <si>
-    <t xml:space="preserve">Пневматическое колесо для тачки / тележки (4.00-8, диаметр 380 мм, ось 20 мм, подшипник) А5 PR 3000-20 1000052</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001639100</t>
   </si>
   <si>
     <t xml:space="preserve">Полог брезентовый влагоотталкивающий 3х6 м, плотность 450 г/м2, внутренний диаметр люверса 16 мм, шаг 0,5 м, цвет хаки</t>
   </si>
   <si>
-    <t xml:space="preserve">Полог брезентовый 3x6 м OP3x6 </t>
-  </si>
-  <si>
     <t xml:space="preserve">770000480701</t>
   </si>
   <si>
     <t xml:space="preserve">Лен сантехнический для защиты от протечек воды и газа, L=1100 мм</t>
   </si>
   <si>
-    <t xml:space="preserve">Сантехнический лен ООО ЮНАФЛЭКС ЭКСТРА 500 гр Л/С50019</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001796202</t>
   </si>
   <si>
@@ -281,93 +254,60 @@
     <t xml:space="preserve">31.08.2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Мебельный крючок ТУНДРА KM201CP, двухрожковый, цвет хром</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001861032</t>
   </si>
   <si>
     <t xml:space="preserve">Средство чистящее для форсунок, объем 0,2 л</t>
   </si>
   <si>
-    <t xml:space="preserve">Промывка инжекторной системы бензинового двигателя ML101 LAVR, 1 л</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001861075</t>
   </si>
   <si>
     <t xml:space="preserve">Воронка разборная 120х345 мм, диаметр 118 мм, пластик</t>
   </si>
   <si>
-    <t xml:space="preserve">Воронка ДАЛИ-авто разборная, сеточка DA-02158</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001861099</t>
   </si>
   <si>
     <t xml:space="preserve">Валик прикаточный металлический большой, ширина ролика 40 мм, длина ручки 120 мм, диаметр ролика 27 мм, сталь</t>
   </si>
   <si>
-    <t xml:space="preserve">Валик прикаточный металлический большой STP 29266</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001861447</t>
   </si>
   <si>
     <t xml:space="preserve">Ролик прикаточный, силикон, толщина 40 мм, на подшипнике</t>
   </si>
   <si>
-    <t xml:space="preserve">Прикаточный ролик 40мм из силикона, на подшипнике ROTORICA 5106975NT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Китай</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001861457</t>
   </si>
   <si>
     <t xml:space="preserve">Ролик прикаточный, силикон, толщина 80 мм</t>
   </si>
   <si>
-    <t xml:space="preserve">Валик прикаточный силиконовый термостойкий ХСИ 80 мм 1007</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001861476</t>
   </si>
   <si>
     <t xml:space="preserve">Скребок для бетона 1,5 м, лезвие 100х500 мм, ручка прямая</t>
   </si>
   <si>
-    <t xml:space="preserve">Скребок для бетона SPEKTROS 52880</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001861498</t>
   </si>
   <si>
     <t xml:space="preserve">Лейка для заливки дорожных швов битумными материалами, металл, 12 л</t>
   </si>
   <si>
-    <t xml:space="preserve">Лейка для заливки дорожных швов битумными материалами 12 л LB-12</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001862001</t>
   </si>
   <si>
     <t xml:space="preserve">Таз строительный прямоугольный, 565х315 мм, 120 л, пластмасса, цвет черный</t>
   </si>
   <si>
-    <t xml:space="preserve">Прямоугольный строительный таз Obern 120л 23317</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001863870</t>
   </si>
   <si>
     <t xml:space="preserve">Полог брезентовый огнестойкий 3х4 м, плотность 400 г/м2</t>
   </si>
   <si>
-    <t xml:space="preserve">Брезент огнеупорный, 4×3 м, плотность 400 г/м²</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000741600</t>
   </si>
   <si>
@@ -383,27 +323,18 @@
     <t xml:space="preserve">30.06.2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Страховочная высокопрочная веревка Gigant 48 прядей, 10 мм х50 м HRS-08</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001084227</t>
   </si>
   <si>
     <t xml:space="preserve">Шланг для полива 19 мм (3/4) х 50 м, пятислойный 25 бар</t>
   </si>
   <si>
-    <t xml:space="preserve">Садовый шланг Fachmann Garten Experte 3/4", 50 м 05.048</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001990245</t>
   </si>
   <si>
     <t xml:space="preserve">Урна-пепельница уличная квадратная, 30 л, 280х28-х735 мм, корпус нержавеющая сталь, крышка пластик, с фиксацией пакета</t>
   </si>
   <si>
-    <t xml:space="preserve">Корзина Титан Мета 250 НН нержавеющая сталь 4607078081205</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000115315</t>
   </si>
   <si>
@@ -419,9 +350,6 @@
     <t xml:space="preserve">15.05.2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Знак GD-04 «Переносной сигнал остановки»</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000291729</t>
   </si>
   <si>
@@ -434,9 +362,6 @@
     <t xml:space="preserve">31.05.2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Простыни белые, 100 % хлопок, размер 70х80 см</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000534472</t>
   </si>
   <si>
@@ -446,18 +371,12 @@
     <t xml:space="preserve">01.10.2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Дубовый веник Банная линия Травяной 10-676</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000655883</t>
   </si>
   <si>
     <t xml:space="preserve">Крючок тройной мебельный</t>
   </si>
   <si>
-    <t xml:space="preserve">Мебельный крючок ТУНДРА KM301CP трехрожковый, цвет хром</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000706692</t>
   </si>
   <si>
@@ -470,9 +389,6 @@
     <t xml:space="preserve">Грунт плодородный, для овощных культур, плодово-ягодных культур, цветов, рассады, газона, 25 л, состав: высококачественный верховой торф различной степени разложения, очищенный речной песок, перлит, комплексное минеральное удобрение, биогумус. Основныепитательные вещества не менее: азот (NH4 + NO3) - 150 мг/л; фосфор (P2O5) - 270 мг/л; калий (K2O) - 300 мг/л; pH солевой суспензии - 6,0-6,5 мг /л</t>
   </si>
   <si>
-    <t xml:space="preserve">Грунт универсальный "Живая Земля", 25 л</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000739156</t>
   </si>
   <si>
@@ -482,81 +398,51 @@
     <t xml:space="preserve">УП</t>
   </si>
   <si>
-    <t xml:space="preserve">Вода Baikal430 Байкальская глубинная питьевая негазированная, 450мл, 12шт в упак</t>
-  </si>
-  <si>
     <t xml:space="preserve">Средство для удаления накипи в кофе-машинах и известкового налета 250 мл, полный цикл очистки</t>
   </si>
   <si>
-    <t xml:space="preserve">редство от накипи для кофемашин Tatkraft антинакипин, очиститель накипи, 250 мл </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Германия</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000797766</t>
   </si>
   <si>
     <t xml:space="preserve">Стеллаж для книг 1470х390х1470 мм, материал ДСП, ДВП, акриловая краска, сотовидный бумажный наполнитель (100% переработанный материа л), пластиковая оконтовка, максимальная нагрузка 13 кг, цвет белый</t>
   </si>
   <si>
-    <t xml:space="preserve">Стеллаж книжный, 16 ячеек "Точка роста"</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000872145</t>
   </si>
   <si>
     <t xml:space="preserve">Ключница 300х230х90 мм, на 50 ключей, 50 пластиковых брелоков, крепежная система, с ключевым замком, цвет серый</t>
   </si>
   <si>
-    <t xml:space="preserve">Ключница + 50 брелоков МЕТКОН КЛ-50СБ MT_03_009_08_Ss</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000891547</t>
   </si>
   <si>
     <t xml:space="preserve">Таблетка для чистки гидросистемы автоматических кофемашин, оптимизированная скорость растворения, 36 штук</t>
   </si>
   <si>
-    <t xml:space="preserve">Таблетки для декальцинации Jura 36 шт.</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000894300</t>
   </si>
   <si>
     <t xml:space="preserve">Бирка для ключей пластиковая с металлическим кольцом, цвет ассорти, 22х49,5 мм</t>
   </si>
   <si>
-    <t xml:space="preserve">Бирки для ключей STAFF КОМПЛЕКТ 100 шт, длина 50 мм, инфо-окно 30х15 мм, АССОРТИ 237493</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001044172</t>
   </si>
   <si>
     <t xml:space="preserve">Вода питьевая газированная, объем 0,5 л, ПЭТ, 12 шт/упак</t>
   </si>
   <si>
-    <t xml:space="preserve">Вода питьевая Святой источник негазированная 0.5 л</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001355112</t>
   </si>
   <si>
     <t xml:space="preserve">Грунт для цветов универсальный прессованный, 25 л</t>
   </si>
   <si>
-    <t xml:space="preserve">Грунт для цветов Фаско Цветочный 25 л</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001386057</t>
   </si>
   <si>
     <t xml:space="preserve">Травосмесь газонная морозостойкая, состав: райграс пастбищный 20%, овсяница луговая 40%, овсяница тростниковая 40%, 5 кг</t>
   </si>
   <si>
-    <t xml:space="preserve">Газонная травосмесь ABSOLUTE GREEN Морозостойкая 5 кг</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001515086</t>
   </si>
   <si>
@@ -566,9 +452,6 @@
     <t xml:space="preserve">ОЛ №00К23 ОТ 27.03.2023Г</t>
   </si>
   <si>
-    <t xml:space="preserve">Жалюзи на окна горизонтальные. Цвет белый глянцевый. 57см. х 60см. </t>
-  </si>
-  <si>
     <t xml:space="preserve">770001706975</t>
   </si>
   <si>
@@ -578,9 +461,6 @@
     <t xml:space="preserve">ОЛ №10 ОТ 24.01.2024Г.</t>
   </si>
   <si>
-    <t xml:space="preserve">Вода минеральная Baikal Reserve лечебно-столовая газированная 0.33 л</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001706978</t>
   </si>
   <si>
@@ -590,9 +470,6 @@
     <t xml:space="preserve">ОЛ №11 ОТ 24.01.2024Г.</t>
   </si>
   <si>
-    <t xml:space="preserve">Вода минеральная Нарзан лечебно-столовая газированная стекло 0.5 л</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001787977</t>
   </si>
   <si>
@@ -617,18 +494,12 @@
     <t xml:space="preserve">Мешок полипропиленовый 120х160 см</t>
   </si>
   <si>
-    <t xml:space="preserve">Мешок полипропиленовый, тканый, 100х120 см ООО Комус 522280</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000076973</t>
   </si>
   <si>
     <t xml:space="preserve">Полотно вафельное отбеленное, ширина 45 см, рулон 60 м, плотность 145 г/м2, цвет белый</t>
   </si>
   <si>
-    <t xml:space="preserve">Техническое вафельное полотно ООО Комус, 145 г/кв.м, 60м х 45см, отбеленное </t>
-  </si>
-  <si>
     <t xml:space="preserve">770000077724</t>
   </si>
   <si>
@@ -650,18 +521,12 @@
     <t xml:space="preserve">Грабли металлические витые, 12 зубов с черенком</t>
   </si>
   <si>
-    <t xml:space="preserve">Витые грабли СИБРТЕХ 12 зубьев, 300 мм, с черенком</t>
-  </si>
-  <si>
     <t xml:space="preserve">Велосипед трехколесный, взрослый с багажником и корзиной на руле, односкоростной, d колес 20"-26"</t>
   </si>
   <si>
     <t xml:space="preserve">30.11.2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Трехколесный велосипед для взрослых ТРАЙК БАЙК 20 (колеса 20 дюймов, 1 скорость, 2 корзинки) </t>
-  </si>
-  <si>
     <t xml:space="preserve">770000352575</t>
   </si>
   <si>
@@ -677,24 +542,12 @@
     <t xml:space="preserve">30.04.2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Лопата для снега Fiskars Solid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Финляндия</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000500162</t>
   </si>
   <si>
     <t xml:space="preserve">Коврик грязезащитный модульный 100х150 см, из крупноячеистой резины высотой 23 см, шипы с обратной стороны, с возможностью установки специальных вставок-щеток, цвет черный</t>
   </si>
   <si>
-    <t xml:space="preserve">Коврик входной резиновый грязезащитный Luscan Professional 100х150 см черный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Индия</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000512669</t>
   </si>
   <si>
@@ -713,87 +566,57 @@
     <t xml:space="preserve">Мешок для мусора 240 л, 90х140 см, ПВД, 40 мкм, цвет черный, 10 штук в рулоне</t>
   </si>
   <si>
-    <t xml:space="preserve">Мешки для мусора прочные черные (10 шт; 240 л; 90х140 см; 50 мкм; ПВД) ЛАЙМА 605337</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000713006</t>
   </si>
   <si>
     <t xml:space="preserve">Ель альпийская, высота 9000 мм, длина основания 6900 мм, диаметр нижних веток 2200 мм, площадь боковой поверхности 18 м2, объем 0,46 м3, материал иголок лента ПВХ</t>
   </si>
   <si>
-    <t xml:space="preserve">Сосна Альпийская, высота 9 м</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000717501</t>
   </si>
   <si>
     <t xml:space="preserve">Ограждение елочное для ствольной елки 9000 мм, цвет ярко-красный</t>
   </si>
   <si>
-    <t xml:space="preserve">Ограждение для ствольной уличной елки 9 м</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000718141</t>
   </si>
   <si>
     <t xml:space="preserve">Набор освещения новогоднего для елки 9000 мм, в составе: 15 светодиодных гирлянд 18000 мм 24В, 2700 ламп, трансформатор, контроллер, автомат, УЗО, монтажный ящик степень ащиты IP54</t>
   </si>
   <si>
-    <t xml:space="preserve">Комплект освещения Классик для елей высотой 9 м., 2700 LED, 15 шт.*18 м., Green Trees (Klassik9)</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000718169</t>
   </si>
   <si>
     <t xml:space="preserve">Украшение новогоднее (шар) 200 мм, материал пластик, цвет фиолетовый, тип крепления подвеска</t>
   </si>
   <si>
-    <t xml:space="preserve">Пластиковый шар 200 мм., фиолетовый, глянцевый,</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000718181</t>
   </si>
   <si>
     <t xml:space="preserve">Украшение новогоднее (шар) 200 мм, материал пластик, цвет красный, тип крепления подвеска</t>
   </si>
   <si>
-    <t xml:space="preserve">Пластиковый шар 200 мм., красный, глянцевый,</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000718187</t>
   </si>
   <si>
     <t xml:space="preserve">Украшение новогоднее (шар) 200 мм, материал пластик, цвет золотой</t>
   </si>
   <si>
-    <t xml:space="preserve">Пластиковый шар 200 мм., золотой, глянцевый,</t>
-  </si>
-  <si>
     <t xml:space="preserve">Украшение новогоднее (шар) 200 мм, материал пластик, цвет синий</t>
   </si>
   <si>
-    <t xml:space="preserve">Пластиковый шар 200 мм., синий, глянцевый,</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000718194</t>
   </si>
   <si>
     <t xml:space="preserve">Украшение новогоднее (шар) 200 мм, материал пластик, цвет зеленый</t>
   </si>
   <si>
-    <t xml:space="preserve">Пластиковый шар 200 мм., зеленый, глянцевый,</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000718198</t>
   </si>
   <si>
     <t xml:space="preserve">Украшение новогоднее (шар) 200 мм, материал пластик, цвет мятный</t>
   </si>
   <si>
-    <t xml:space="preserve">Пластиковый шар 200 мм., мятный, глянцевый,</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000720607</t>
   </si>
   <si>
@@ -806,81 +629,54 @@
     <t xml:space="preserve">Коврик держатель резиновый автомобильный на торпеду универсальный для устройств с диагональю 3,5"- 6", вход DC 12-24V (для использов ания в автомобиле), выход 5В/2А, совместимость microUSB (Android) или 8-pin Lightning (iOS), питание гнездо прикуривателя 12 V, угол наклона 120 град, материал силикон, пластик, цвет черный, в составе: силиконовый коврик - держатель Remax, зарядный кабель MicroUSB для Android устройств и 8 Pin Lightning для устройств Apple (iPhone 5, 5C, 5S, 6, 6S, 6+, SE) , руководство пользователя, гарантийн ый талон</t>
   </si>
   <si>
-    <t xml:space="preserve">Держатель телефона до 6,5" коврик с функцией ЗУ Type-C RC-FC1 REMAX</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000737853</t>
   </si>
   <si>
     <t xml:space="preserve">Набор ковриков ячеистых 1000х1500х22 мм, 3 штуки, материал резина, цвет черный</t>
   </si>
   <si>
-    <t xml:space="preserve">Резиновый ковер для входной зоны HAMAT ДОМИНО/DOMINO 100х150 см, 22 мм, 3шт</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000738094</t>
   </si>
   <si>
     <t xml:space="preserve">Кашпо для цветов с системой автополива, высота 50 см, напольное, наличие вставного посадочного горшка, вертикальное, 15 л, резервуар для воды, индикатор уровня воды, цвет белый</t>
   </si>
   <si>
-    <t xml:space="preserve">Кашпо для цветов 29л со вставкой и автополивом, горшок для цветов </t>
-  </si>
-  <si>
     <t xml:space="preserve">770000738095</t>
   </si>
   <si>
     <t xml:space="preserve">Кашпо для цветов с системой автополива, высота 30 см, настольное, наличие вставного посадочного горшка, вертикальное, 7 л, резервуар для воды, индикатор уровня воды, цвет белый</t>
   </si>
   <si>
-    <t xml:space="preserve">Кашпо для цветов 13,5л со вставкой и автополивом, горшок для цветов </t>
-  </si>
-  <si>
     <t xml:space="preserve">770000741405</t>
   </si>
   <si>
     <t xml:space="preserve">Грунт цветочный универсальный, фасовка 10 л</t>
   </si>
   <si>
-    <t xml:space="preserve">Грунт для цветов Фаско Цветочный 10 л</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000788029</t>
   </si>
   <si>
     <t xml:space="preserve">Травосмесь для рекультивации нарушенных земель, восстановление плодородия почв в условиях Крайнего Севера, предотвращение развития в одной и ветровой эрозии почв, восстановление растительного покрова, создание оптимально организованного и экологически сбалансирован ного устойчивого ландшафта, материал из натуральных волокон, между слоями уложена смесь семян многолетних растений и питательных вещ еств, класс семян 1, площадь гидропосева 100 м2, фасовка 30 кг</t>
   </si>
   <si>
-    <t xml:space="preserve">Семена травосмесей "Для рекультивации нарушенных земель" 30кг</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000859074</t>
   </si>
   <si>
     <t xml:space="preserve">Сани-волокуши 1005х560х340 мм, глубокие, материал морозостойкий ударопрочный формовой пластик</t>
   </si>
   <si>
-    <t xml:space="preserve">Рыболовные сани Norfin BULLDOG 90x60x29.5см CP-BU900</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000906477</t>
   </si>
   <si>
     <t xml:space="preserve">Стеллаж металлический 1000х600х2000 мм, 6 полок, материал металл, нагрузка максимальная на стеллаж 500 кг, сборка, цвет серый</t>
   </si>
   <si>
-    <t xml:space="preserve">Стеллаж металлический Cobalt МС-266/500 (6 полок, 1000х600х2000 мм)</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000951287</t>
   </si>
   <si>
     <t xml:space="preserve">Лопата штыковая стальная, с деревянным черенком, длина лезвия 290 мм, ширина лезвия 205 мм, длина черенка 1500 мм</t>
   </si>
   <si>
-    <t xml:space="preserve">Штыковая лопата, деревянный черенок ЗУБР Профессионал Фаворит</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001029102</t>
   </si>
   <si>
@@ -890,102 +686,66 @@
     <t xml:space="preserve">ГОСТ Р 51520-99</t>
   </si>
   <si>
-    <t xml:space="preserve">ЕВРОХИМ (20-20-20) Водорастворимое удобрение 25кг</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001030908</t>
   </si>
   <si>
     <t xml:space="preserve">Дренаж керамзитовый средний, фракция 10-20 мм, 2,5 л</t>
   </si>
   <si>
-    <t xml:space="preserve">Дренаж керамзитовый HOUSEPLANTS фр.10-20мм, 2,0 л 99</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001031113</t>
   </si>
   <si>
     <t xml:space="preserve">Стеллаж металлический 500х1500х2000 мм, 7 полок, положение полки регулируется по высоте, нагрузка на полку 150 кг, на усиленые полки 300 кг, на стеллаж 1800 кг, цвет светло- серый, покрытие порошковое полимерное</t>
   </si>
   <si>
-    <t xml:space="preserve">Стеллаж металлический Титан МС-500 1800х1500х500 7 полок</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001073524</t>
   </si>
   <si>
     <t xml:space="preserve">Фигура топиари Олень, ландшафтная, 2050х2200х550 мм, материал стеклопластик, искусственный газон</t>
   </si>
   <si>
-    <t xml:space="preserve">Топиари Олень, ландшафтная фигура 2,05*2,20*0,55 м</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001184405</t>
   </si>
   <si>
     <t xml:space="preserve">Проступь резиновая образец 750х330х100 мм, высокопрочная резина, толщина 5 мм, фактура продольная, цвет желтый, температура эксплуат ации -60/+50 град.С, крепеж на саморез, клей</t>
   </si>
   <si>
-    <t xml:space="preserve">Проступь 750х330х100 мм резиновая средняя, цвет Черный</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001184409</t>
   </si>
   <si>
     <t xml:space="preserve">Проступь резиновая 900х330х30 мм, высокопрочная износостойкая резина, толщина основы 3 мм, толщина с рисунком 5 мм, фактура елочка п рямая, цвет черный, температура эксплуатации -60/+50 град.С, крепеж на саморез, клей</t>
   </si>
   <si>
-    <t xml:space="preserve">Резиновая проступь 900*300*30мм</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001385802</t>
   </si>
   <si>
     <t xml:space="preserve">Полка для ванной угловая 3-х секционная, 230х230х585 мм, металл, установка настенная, цвет хром</t>
   </si>
   <si>
-    <t xml:space="preserve">Полка в ванную EUROHOUSE 3-х секционная, угловая 23х23х58,5 см, хром</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001541386</t>
   </si>
   <si>
     <t xml:space="preserve">Ледоруб L=1430 мм, ширина рабочей части 150 мм, материал рабочей части и черенка сталь среднеуглеродистая, рукоять полипропилен, пок рытие порошковая эмаль, цвет черный</t>
   </si>
   <si>
-    <t xml:space="preserve">Ледоруб с металлической ручкой 1200мм, Gigant Б-3 G-С370/1</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001607157</t>
   </si>
   <si>
     <t xml:space="preserve">Чехол для коктейльного стола диаметром 80 см, высотой 110 см, расстоянием между ножек 60х70 см +/- 5 см, ткань 100% п/э, нижняя част ь усилена дополнительными прокладками под ножки, цвет белый, упаковка 27х25х3,5 см</t>
   </si>
   <si>
-    <t xml:space="preserve">Стрейчевый чехол на коктейльный стол цвет черный для столов d-80 см. h-110 см. </t>
-  </si>
-  <si>
     <t xml:space="preserve">770001682972</t>
   </si>
   <si>
     <t xml:space="preserve">Гирлянда электрическая нить, 50 м, 500 LED, цвет свечения мульти, контроллер на 8 функций, 220 В, материал нити PVC, цвет черный</t>
   </si>
   <si>
-    <t xml:space="preserve">Гирлянда линейная на бобине FERON 230V 2200 LED 50м, 5000K, IP44, шнур 3м 51437</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001844120</t>
   </si>
   <si>
     <t xml:space="preserve">Часы настенные d=305 мм, пластик, дисплей циферблат, механизм кварцевый, цвет черный, цвет стрелки черный, элемент питания АА, 1,5 В</t>
   </si>
   <si>
-    <t xml:space="preserve">Часы настенные Troyka 78770783 (30.5х30.5х5 см)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беларусь</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001858990</t>
   </si>
   <si>
@@ -995,9 +755,6 @@
     <t xml:space="preserve">КТ</t>
   </si>
   <si>
-    <t xml:space="preserve">   Светодиодная «Семья оленей ажурных, динамика 1,9 м. динамика 2,5 м. пьющий 1,1 м.» — ZN1-KOM-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001906377</t>
   </si>
   <si>
@@ -1007,9 +764,6 @@
     <t xml:space="preserve">ОЛ №002Г.2024.П ОТ 21.08.2024Г.</t>
   </si>
   <si>
-    <t xml:space="preserve">Полочка FASHUN черный A7326-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001940570</t>
   </si>
   <si>
@@ -1019,9 +773,6 @@
     <t xml:space="preserve">ОЛ №15 ОТ 23.10.2024Г.</t>
   </si>
   <si>
-    <t xml:space="preserve">Набор для пирамиды "X Edition" / "Premium Phoenolic" махагон</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001950955</t>
   </si>
   <si>
@@ -1037,9 +788,6 @@
     <t xml:space="preserve">ОЛ №36 ОТ 17.06.2024Г.</t>
   </si>
   <si>
-    <t xml:space="preserve">Бильярдный стол для русской пирамиды "Онега" (10 футов, сланец 25мм, борт ясень)</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001981702</t>
   </si>
   <si>
@@ -1049,9 +797,6 @@
     <t xml:space="preserve">ОЛ №71 ОТ 16.10.2024Г.</t>
   </si>
   <si>
-    <t xml:space="preserve">Елка искусственная Виктория 10,0 м</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001981707</t>
   </si>
   <si>
@@ -1061,21 +806,12 @@
     <t xml:space="preserve">ОЛ №69 ОТ 16.10.2024Г.</t>
   </si>
   <si>
-    <t xml:space="preserve">Световая композиция “Олени с санями” (170 см)</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001988110</t>
   </si>
   <si>
     <t xml:space="preserve">Сукно для бильярдного стола 195 см х 4 м, 325 г/м2, шерсть 85%, нейлон 15%, цвет зеленый</t>
   </si>
   <si>
-    <t xml:space="preserve">Сукно для бильярдного стола 10 футов Iwan Simonis 760 Yellow Green 4,0 х 1,95 м 70% шерсть 30% нейлон </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бельгия</t>
-  </si>
-  <si>
     <t xml:space="preserve">770001992628</t>
   </si>
   <si>
@@ -1085,9 +821,6 @@
     <t xml:space="preserve">ОЛ №11 ОТ 03.01.2025Г.</t>
   </si>
   <si>
-    <t xml:space="preserve">Рулонные шторы на окна, однотонные 46х160 см </t>
-  </si>
-  <si>
     <t xml:space="preserve">770001992835</t>
   </si>
   <si>
@@ -1103,34 +836,22 @@
     <t xml:space="preserve">Бирка цветного кодирования 200х100 мм для обозначения исправности и допуска к работе инструмента, приспособлений, производственного инвентаря, Тэксп.=-50/+50 град.С, цвет синий</t>
   </si>
   <si>
-    <t xml:space="preserve">Бирка цветного кодирования 200х100 мм синий</t>
-  </si>
-  <si>
     <t xml:space="preserve">770002053889</t>
   </si>
   <si>
     <t xml:space="preserve">Бирка цветного кодирования 200х100 мм для обозначения исправности и допуска к работе инструмента, приспособлений, производственного инвентаря, Тэксп.=-50/+50 град.С, цвет оранжевый</t>
   </si>
   <si>
-    <t xml:space="preserve">Бирка цветного кодирования 200х100 мм оранжевый</t>
-  </si>
-  <si>
     <t xml:space="preserve">770002053892</t>
   </si>
   <si>
     <t xml:space="preserve">Бирка цветного кодирования 200х100 мм для обозначения исправности и допуска к работе инструмента, приспособлений, производственного инвентаря, Тэксп.=-50/+50 град.С, цвет желтый</t>
   </si>
   <si>
-    <t xml:space="preserve">Бирка цветного кодирования 200х100 мм жеотый</t>
-  </si>
-  <si>
     <t xml:space="preserve">770002053894</t>
   </si>
   <si>
     <t xml:space="preserve">Бирка цветного кодирования 200х100 мм для обозначения исправности и допуска к работе инструмента, приспособлений, производственного инвентаря, Тэксп.=-50/+50 град.С, цвет белый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бирка цветного кодирования 200х100 мм белый</t>
   </si>
   <si>
     <t xml:space="preserve">770002084086</t>
@@ -1390,7 +1111,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1453,10 +1174,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1594,9 +1311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1199880</xdr:colOff>
+      <xdr:colOff>1199520</xdr:colOff>
       <xdr:row>343</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1610,7 +1327,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="36887400"/>
-          <a:ext cx="2970720" cy="2947680"/>
+          <a:ext cx="2970360" cy="2947320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,9 +1349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1663560</xdr:colOff>
+      <xdr:colOff>1663200</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1648,7 +1365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2454840" y="36878040"/>
-          <a:ext cx="2620440" cy="1918800"/>
+          <a:ext cx="2620080" cy="1918440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,8 +1494,8 @@
   </sheetPr>
   <dimension ref="A1:X339"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E108" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P124" activeCellId="0" sqref="P124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2023,34 +1740,24 @@
       <c r="H17" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I17" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="10" t="n">
-        <v>8050</v>
-      </c>
+      <c r="M17" s="10"/>
       <c r="N17" s="9" t="n">
         <f aca="false">M17*H17</f>
-        <v>161000</v>
+        <v>0</v>
       </c>
       <c r="O17" s="10"/>
-      <c r="P17" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S17" s="10"/>
       <c r="T17" s="12"/>
       <c r="U17" s="13"/>
       <c r="V17" s="12"/>
@@ -2065,10 +1772,10 @@
         <v>84</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>48</v>
@@ -2082,34 +1789,24 @@
       <c r="H18" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="I18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="10" t="n">
-        <v>207</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M18" s="10"/>
       <c r="N18" s="9" t="n">
         <f aca="false">M18*H18</f>
-        <v>1035</v>
+        <v>0</v>
       </c>
       <c r="O18" s="10"/>
-      <c r="P18" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S18" s="10"/>
       <c r="T18" s="12"/>
       <c r="U18" s="13"/>
       <c r="V18" s="12"/>
@@ -2124,10 +1821,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>48</v>
@@ -2141,34 +1838,24 @@
       <c r="H19" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="I19" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="10" t="n">
-        <v>758</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M19" s="10"/>
       <c r="N19" s="9" t="n">
         <f aca="false">M19*H19</f>
-        <v>22740</v>
+        <v>0</v>
       </c>
       <c r="O19" s="10"/>
-      <c r="P19" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S19" s="10"/>
       <c r="T19" s="12"/>
       <c r="U19" s="13"/>
       <c r="V19" s="12"/>
@@ -2183,10 +1870,10 @@
         <v>81</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>48</v>
@@ -2200,34 +1887,24 @@
       <c r="H20" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="I20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="10" t="n">
-        <v>131</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M20" s="10"/>
       <c r="N20" s="9" t="n">
         <f aca="false">M20*H20</f>
-        <v>3930</v>
+        <v>0</v>
       </c>
       <c r="O20" s="10"/>
-      <c r="P20" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S20" s="10"/>
       <c r="T20" s="12"/>
       <c r="U20" s="13"/>
       <c r="V20" s="12"/>
@@ -2242,10 +1919,10 @@
         <v>86</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>48</v>
@@ -2259,34 +1936,24 @@
       <c r="H21" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="10" t="n">
-        <v>432</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M21" s="10"/>
       <c r="N21" s="9" t="n">
         <f aca="false">M21*H21</f>
-        <v>4320</v>
+        <v>0</v>
       </c>
       <c r="O21" s="10"/>
-      <c r="P21" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S21" s="10"/>
       <c r="T21" s="12"/>
       <c r="U21" s="13"/>
       <c r="V21" s="12"/>
@@ -2301,10 +1968,10 @@
         <v>75</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>48</v>
@@ -2318,34 +1985,24 @@
       <c r="H22" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="10" t="n">
-        <v>1073</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M22" s="10"/>
       <c r="N22" s="9" t="n">
         <f aca="false">M22*H22</f>
-        <v>21460</v>
+        <v>0</v>
       </c>
       <c r="O22" s="10"/>
-      <c r="P22" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S22" s="10"/>
       <c r="T22" s="12"/>
       <c r="U22" s="13"/>
       <c r="V22" s="12"/>
@@ -2360,10 +2017,10 @@
         <v>87</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>48</v>
@@ -2377,34 +2034,24 @@
       <c r="H23" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="I23" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>8</v>
-      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="10" t="n">
-        <v>10150</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M23" s="10"/>
       <c r="N23" s="9" t="n">
         <f aca="false">M23*H23</f>
-        <v>40600</v>
+        <v>0</v>
       </c>
       <c r="O23" s="10"/>
-      <c r="P23" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S23" s="10"/>
       <c r="T23" s="12"/>
       <c r="U23" s="13"/>
       <c r="V23" s="12"/>
@@ -2418,11 +2065,11 @@
       <c r="B24" s="9" t="n">
         <v>74</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>74</v>
+      <c r="C24" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>48</v>
@@ -2436,34 +2083,24 @@
       <c r="H24" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="I24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="10" t="n">
-        <v>670</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M24" s="10"/>
       <c r="N24" s="9" t="n">
         <f aca="false">M24*H24</f>
-        <v>3350</v>
+        <v>0</v>
       </c>
       <c r="O24" s="10"/>
-      <c r="P24" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S24" s="10"/>
       <c r="T24" s="12"/>
       <c r="U24" s="13"/>
       <c r="V24" s="12"/>
@@ -2478,10 +2115,10 @@
         <v>19</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>48</v>
@@ -2495,34 +2132,24 @@
       <c r="H25" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="I25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" s="10" t="n">
-        <v>82</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M25" s="10"/>
       <c r="N25" s="9" t="n">
         <f aca="false">M25*H25</f>
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="O25" s="10"/>
-      <c r="P25" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S25" s="10"/>
       <c r="T25" s="12"/>
       <c r="U25" s="13"/>
       <c r="V25" s="12"/>
@@ -2537,10 +2164,10 @@
         <v>83</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>48</v>
@@ -2554,34 +2181,24 @@
       <c r="H26" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="10" t="n">
-        <v>2100</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M26" s="10"/>
       <c r="N26" s="9" t="n">
         <f aca="false">M26*H26</f>
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="O26" s="10"/>
-      <c r="P26" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S26" s="10"/>
       <c r="T26" s="12"/>
       <c r="U26" s="13"/>
       <c r="V26" s="12"/>
@@ -2596,10 +2213,10 @@
         <v>80</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>48</v>
@@ -2613,34 +2230,24 @@
       <c r="H27" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="I27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="10" t="n">
-        <v>140</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M27" s="10"/>
       <c r="N27" s="9" t="n">
         <f aca="false">M27*H27</f>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O27" s="10"/>
-      <c r="P27" s="10" t="s">
-        <v>86</v>
-      </c>
+      <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S27" s="10"/>
       <c r="T27" s="12"/>
       <c r="U27" s="13"/>
       <c r="V27" s="12"/>
@@ -2655,10 +2262,10 @@
         <v>88</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>48</v>
@@ -2672,34 +2279,24 @@
       <c r="H28" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I28" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="10" t="n">
-        <v>758</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M28" s="10"/>
       <c r="N28" s="9" t="n">
         <f aca="false">M28*H28</f>
-        <v>7580</v>
+        <v>0</v>
       </c>
       <c r="O28" s="10"/>
-      <c r="P28" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S28" s="10"/>
       <c r="T28" s="12"/>
       <c r="U28" s="13"/>
       <c r="V28" s="12"/>
@@ -2714,10 +2311,10 @@
         <v>76</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>48</v>
@@ -2731,34 +2328,24 @@
       <c r="H29" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M29" s="10" t="n">
-        <v>3500</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M29" s="10"/>
       <c r="N29" s="9" t="n">
         <f aca="false">M29*H29</f>
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="O29" s="10"/>
-      <c r="P29" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S29" s="10"/>
       <c r="T29" s="12"/>
       <c r="U29" s="13"/>
       <c r="V29" s="12"/>
@@ -2773,10 +2360,10 @@
         <v>77</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>48</v>
@@ -2790,34 +2377,24 @@
       <c r="H30" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="I30" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M30" s="10" t="n">
-        <v>2800</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M30" s="10"/>
       <c r="N30" s="9" t="n">
         <f aca="false">M30*H30</f>
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="O30" s="10"/>
-      <c r="P30" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S30" s="10"/>
       <c r="T30" s="12"/>
       <c r="U30" s="13"/>
       <c r="V30" s="12"/>
@@ -2832,10 +2409,10 @@
         <v>85</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>48</v>
@@ -2849,34 +2426,24 @@
       <c r="H31" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="I31" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M31" s="10" t="n">
-        <v>3325</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M31" s="10"/>
       <c r="N31" s="9" t="n">
         <f aca="false">M31*H31</f>
-        <v>9975</v>
+        <v>0</v>
       </c>
       <c r="O31" s="10"/>
-      <c r="P31" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S31" s="10"/>
       <c r="T31" s="12"/>
       <c r="U31" s="13"/>
       <c r="V31" s="12"/>
@@ -2891,10 +2458,10 @@
         <v>79</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>48</v>
@@ -2908,34 +2475,24 @@
       <c r="H32" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I32" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M32" s="10" t="n">
-        <v>10500</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M32" s="10"/>
       <c r="N32" s="9" t="n">
         <f aca="false">M32*H32</f>
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="O32" s="10"/>
-      <c r="P32" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S32" s="10"/>
       <c r="T32" s="12"/>
       <c r="U32" s="13"/>
       <c r="V32" s="12"/>
@@ -2950,10 +2507,10 @@
         <v>82</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>48</v>
@@ -2967,34 +2524,24 @@
       <c r="H33" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="I33" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M33" s="10" t="n">
-        <v>1167</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M33" s="10"/>
       <c r="N33" s="9" t="n">
         <f aca="false">M33*H33</f>
-        <v>5835</v>
+        <v>0</v>
       </c>
       <c r="O33" s="10"/>
-      <c r="P33" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S33" s="10"/>
       <c r="T33" s="12"/>
       <c r="U33" s="13"/>
       <c r="V33" s="12"/>
@@ -3009,10 +2556,10 @@
         <v>78</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>48</v>
@@ -3026,34 +2573,24 @@
       <c r="H34" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="I34" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M34" s="10" t="n">
-        <v>8750</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M34" s="10"/>
       <c r="N34" s="9" t="n">
         <f aca="false">M34*H34</f>
-        <v>52500</v>
+        <v>0</v>
       </c>
       <c r="O34" s="10"/>
-      <c r="P34" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S34" s="10"/>
       <c r="T34" s="12"/>
       <c r="U34" s="13"/>
       <c r="V34" s="12"/>
@@ -3068,51 +2605,41 @@
         <v>16</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="H35" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="I35" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M35" s="10" t="n">
-        <v>4083</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M35" s="10"/>
       <c r="N35" s="9" t="n">
         <f aca="false">M35*H35</f>
-        <v>204150</v>
+        <v>0</v>
       </c>
       <c r="O35" s="10"/>
-      <c r="P35" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S35" s="10"/>
       <c r="T35" s="12"/>
       <c r="U35" s="13"/>
       <c r="V35" s="12"/>
@@ -3127,16 +2654,16 @@
         <v>15</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>50</v>
@@ -3144,34 +2671,24 @@
       <c r="H36" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="I36" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" s="9" t="n">
-        <v>15</v>
-      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M36" s="10" t="n">
-        <v>7000</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M36" s="10"/>
       <c r="N36" s="9" t="n">
         <f aca="false">M36*H36</f>
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="O36" s="10"/>
-      <c r="P36" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S36" s="10"/>
       <c r="T36" s="12"/>
       <c r="U36" s="13"/>
       <c r="V36" s="12"/>
@@ -3186,16 +2703,16 @@
         <v>17</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>50</v>
@@ -3203,34 +2720,24 @@
       <c r="H37" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="I37" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M37" s="10" t="n">
-        <v>5367</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M37" s="10"/>
       <c r="N37" s="9" t="n">
         <f aca="false">M37*H37</f>
-        <v>32202</v>
+        <v>0</v>
       </c>
       <c r="O37" s="10"/>
-      <c r="P37" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S37" s="10"/>
       <c r="T37" s="12"/>
       <c r="U37" s="13"/>
       <c r="V37" s="12"/>
@@ -3245,16 +2752,16 @@
         <v>32</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>50</v>
@@ -3262,34 +2769,24 @@
       <c r="H38" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="I38" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="M38" s="10" t="n">
-        <v>3800</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M38" s="10"/>
       <c r="N38" s="9" t="n">
         <f aca="false">M38*H38</f>
-        <v>30400</v>
+        <v>0</v>
       </c>
       <c r="O38" s="10"/>
-      <c r="P38" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S38" s="10"/>
       <c r="T38" s="12"/>
       <c r="U38" s="13"/>
       <c r="V38" s="12"/>
@@ -3304,16 +2801,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>51</v>
@@ -3321,34 +2818,24 @@
       <c r="H39" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="I39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="M39" s="10" t="n">
-        <v>257</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M39" s="10"/>
       <c r="N39" s="9" t="n">
         <f aca="false">M39*H39</f>
-        <v>51400</v>
+        <v>0</v>
       </c>
       <c r="O39" s="10"/>
-      <c r="P39" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S39" s="10"/>
       <c r="T39" s="12"/>
       <c r="U39" s="13"/>
       <c r="V39" s="12"/>
@@ -3363,16 +2850,16 @@
         <v>25</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>50</v>
@@ -3380,34 +2867,24 @@
       <c r="H40" s="10" t="n">
         <v>250</v>
       </c>
-      <c r="I40" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M40" s="10" t="n">
-        <v>700</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M40" s="10"/>
       <c r="N40" s="9" t="n">
         <f aca="false">M40*H40</f>
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="O40" s="10"/>
-      <c r="P40" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S40" s="10"/>
       <c r="T40" s="12"/>
       <c r="U40" s="13"/>
       <c r="V40" s="12"/>
@@ -3422,16 +2899,16 @@
         <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>50</v>
@@ -3439,34 +2916,24 @@
       <c r="H41" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="I41" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M41" s="10" t="n">
-        <v>140</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M41" s="10"/>
       <c r="N41" s="9" t="n">
         <f aca="false">M41*H41</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="O41" s="10"/>
-      <c r="P41" s="10" t="s">
-        <v>138</v>
-      </c>
+      <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S41" s="10"/>
       <c r="T41" s="12"/>
       <c r="U41" s="13"/>
       <c r="V41" s="12"/>
@@ -3481,16 +2948,16 @@
         <v>49</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>50</v>
@@ -3498,34 +2965,24 @@
       <c r="H42" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="I42" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J42" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" s="10" t="n">
-        <v>2567</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M42" s="10"/>
       <c r="N42" s="9" t="n">
         <f aca="false">M42*H42</f>
-        <v>102680</v>
+        <v>0</v>
       </c>
       <c r="O42" s="10"/>
-      <c r="P42" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S42" s="10"/>
       <c r="T42" s="12"/>
       <c r="U42" s="13"/>
       <c r="V42" s="12"/>
@@ -3540,16 +2997,16 @@
         <v>28</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>50</v>
@@ -3557,34 +3014,24 @@
       <c r="H43" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I43" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
       <c r="K43" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M43" s="10" t="n">
-        <v>950</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M43" s="10"/>
       <c r="N43" s="9" t="n">
         <f aca="false">M43*H43</f>
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="O43" s="10"/>
-      <c r="P43" s="10" t="s">
-        <v>143</v>
-      </c>
+      <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S43" s="10"/>
       <c r="T43" s="12"/>
       <c r="U43" s="13"/>
       <c r="V43" s="12"/>
@@ -3599,51 +3046,41 @@
         <v>30</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="H44" s="10" t="n">
         <v>480</v>
       </c>
-      <c r="I44" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J44" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M44" s="10" t="n">
-        <v>1200</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M44" s="10"/>
       <c r="N44" s="9" t="n">
         <f aca="false">M44*H44</f>
-        <v>576000</v>
+        <v>0</v>
       </c>
       <c r="O44" s="10"/>
-      <c r="P44" s="10" t="s">
-        <v>147</v>
-      </c>
+      <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S44" s="10"/>
       <c r="T44" s="12"/>
       <c r="U44" s="13"/>
       <c r="V44" s="12"/>
@@ -3657,17 +3094,17 @@
       <c r="B45" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>74</v>
+      <c r="C45" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>50</v>
@@ -3675,34 +3112,24 @@
       <c r="H45" s="10" t="n">
         <v>80</v>
       </c>
-      <c r="I45" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J45" s="9" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M45" s="10" t="n">
-        <v>350</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M45" s="10"/>
       <c r="N45" s="9" t="n">
         <f aca="false">M45*H45</f>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="O45" s="10"/>
-      <c r="P45" s="10" t="s">
-        <v>149</v>
-      </c>
+      <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="10" t="s">
-        <v>150</v>
-      </c>
+      <c r="S45" s="10"/>
       <c r="T45" s="12"/>
       <c r="U45" s="13"/>
       <c r="V45" s="12"/>
@@ -3717,16 +3144,16 @@
         <v>20</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>50</v>
@@ -3734,34 +3161,24 @@
       <c r="H46" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="I46" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="J46" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="10" t="n">
-        <v>29500</v>
-      </c>
+      <c r="M46" s="10"/>
       <c r="N46" s="9" t="n">
         <f aca="false">M46*H46</f>
-        <v>118000</v>
+        <v>0</v>
       </c>
       <c r="O46" s="10"/>
-      <c r="P46" s="10" t="s">
-        <v>153</v>
-      </c>
+      <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S46" s="10"/>
       <c r="T46" s="12"/>
       <c r="U46" s="13"/>
       <c r="V46" s="12"/>
@@ -3776,16 +3193,16 @@
         <v>21</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>50</v>
@@ -3793,34 +3210,24 @@
       <c r="H47" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I47" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M47" s="10" t="n">
-        <v>5017</v>
-      </c>
+      <c r="M47" s="10"/>
       <c r="N47" s="9" t="n">
         <f aca="false">M47*H47</f>
-        <v>50170</v>
+        <v>0</v>
       </c>
       <c r="O47" s="10"/>
-      <c r="P47" s="10" t="s">
-        <v>156</v>
-      </c>
+      <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S47" s="10"/>
       <c r="T47" s="12"/>
       <c r="U47" s="13"/>
       <c r="V47" s="12"/>
@@ -3835,16 +3242,16 @@
         <v>23</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>50</v>
@@ -3852,34 +3259,24 @@
       <c r="H48" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M48" s="10" t="n">
-        <v>13417</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M48" s="10"/>
       <c r="N48" s="9" t="n">
         <f aca="false">M48*H48</f>
-        <v>268340</v>
+        <v>0</v>
       </c>
       <c r="O48" s="10"/>
-      <c r="P48" s="10" t="s">
-        <v>159</v>
-      </c>
+      <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="10" t="s">
-        <v>150</v>
-      </c>
+      <c r="S48" s="10"/>
       <c r="T48" s="12"/>
       <c r="U48" s="13"/>
       <c r="V48" s="12"/>
@@ -3894,16 +3291,16 @@
         <v>24</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>50</v>
@@ -3911,34 +3308,24 @@
       <c r="H49" s="10" t="n">
         <v>500</v>
       </c>
-      <c r="I49" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
       <c r="K49" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M49" s="10" t="n">
-        <v>5.5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M49" s="10"/>
       <c r="N49" s="9" t="n">
         <f aca="false">M49*H49</f>
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="O49" s="10"/>
-      <c r="P49" s="10" t="s">
-        <v>162</v>
-      </c>
+      <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S49" s="10"/>
       <c r="T49" s="12"/>
       <c r="U49" s="13"/>
       <c r="V49" s="12"/>
@@ -3953,51 +3340,41 @@
         <v>31</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="H50" s="10" t="n">
         <v>240</v>
       </c>
-      <c r="I50" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J50" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M50" s="10" t="n">
-        <v>600</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M50" s="10"/>
       <c r="N50" s="9" t="n">
         <f aca="false">M50*H50</f>
-        <v>144000</v>
+        <v>0</v>
       </c>
       <c r="O50" s="10"/>
-      <c r="P50" s="10" t="s">
-        <v>165</v>
-      </c>
+      <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
-      <c r="S50" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S50" s="10"/>
       <c r="T50" s="12"/>
       <c r="U50" s="13"/>
       <c r="V50" s="12"/>
@@ -4012,16 +3389,16 @@
         <v>51</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>50</v>
@@ -4029,34 +3406,24 @@
       <c r="H51" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I51" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L51" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M51" s="10" t="n">
-        <v>712</v>
-      </c>
+      <c r="M51" s="10"/>
       <c r="N51" s="9" t="n">
         <f aca="false">M51*H51</f>
-        <v>7120</v>
+        <v>0</v>
       </c>
       <c r="O51" s="10"/>
-      <c r="P51" s="10" t="s">
-        <v>168</v>
-      </c>
+      <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S51" s="10"/>
       <c r="T51" s="12"/>
       <c r="U51" s="13"/>
       <c r="V51" s="12"/>
@@ -4071,16 +3438,16 @@
         <v>27</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>50</v>
@@ -4088,34 +3455,24 @@
       <c r="H52" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="I52" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M52" s="10" t="n">
-        <v>3400</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M52" s="10"/>
       <c r="N52" s="9" t="n">
         <f aca="false">M52*H52</f>
-        <v>340000</v>
+        <v>0</v>
       </c>
       <c r="O52" s="10"/>
-      <c r="P52" s="10" t="s">
-        <v>171</v>
-      </c>
+      <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S52" s="10"/>
       <c r="T52" s="12"/>
       <c r="U52" s="13"/>
       <c r="V52" s="12"/>
@@ -4130,16 +3487,16 @@
         <v>26</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>50</v>
@@ -4147,34 +3504,24 @@
       <c r="H53" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I53" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
       <c r="K53" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M53" s="10" t="n">
-        <v>2100</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M53" s="10"/>
       <c r="N53" s="9" t="n">
         <f aca="false">M53*H53</f>
-        <v>42000</v>
+        <v>0</v>
       </c>
       <c r="O53" s="10"/>
-      <c r="P53" s="10" t="s">
-        <v>175</v>
-      </c>
+      <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S53" s="10"/>
       <c r="T53" s="12"/>
       <c r="U53" s="13"/>
       <c r="V53" s="12"/>
@@ -4189,16 +3536,16 @@
         <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>50</v>
@@ -4206,34 +3553,24 @@
       <c r="H54" s="10" t="n">
         <v>480</v>
       </c>
-      <c r="I54" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M54" s="10" t="n">
-        <v>75</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M54" s="10"/>
       <c r="N54" s="9" t="n">
         <f aca="false">M54*H54</f>
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="O54" s="10"/>
-      <c r="P54" s="10" t="s">
-        <v>179</v>
-      </c>
+      <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
-      <c r="S54" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S54" s="10"/>
       <c r="T54" s="12"/>
       <c r="U54" s="13"/>
       <c r="V54" s="12"/>
@@ -4248,16 +3585,16 @@
         <v>14</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>50</v>
@@ -4265,34 +3602,24 @@
       <c r="H55" s="10" t="n">
         <v>120</v>
       </c>
-      <c r="I55" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M55" s="10" t="n">
-        <v>95</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M55" s="10"/>
       <c r="N55" s="9" t="n">
         <f aca="false">M55*H55</f>
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="O55" s="10"/>
-      <c r="P55" s="10" t="s">
-        <v>183</v>
-      </c>
+      <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S55" s="10"/>
       <c r="T55" s="12"/>
       <c r="U55" s="13"/>
       <c r="V55" s="12"/>
@@ -4307,16 +3634,16 @@
         <v>1</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>50</v>
@@ -4324,34 +3651,24 @@
       <c r="H56" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I56" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J56" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="M56" s="10" t="n">
-        <v>2567</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M56" s="10"/>
       <c r="N56" s="9" t="n">
         <f aca="false">M56*H56</f>
-        <v>51340</v>
+        <v>0</v>
       </c>
       <c r="O56" s="10"/>
-      <c r="P56" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S56" s="10"/>
       <c r="T56" s="12"/>
       <c r="U56" s="13"/>
       <c r="V56" s="12"/>
@@ -4366,16 +3683,16 @@
         <v>9</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>50</v>
@@ -4383,34 +3700,24 @@
       <c r="H57" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="I57" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M57" s="10" t="n">
-        <v>432</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M57" s="10"/>
       <c r="N57" s="9" t="n">
         <f aca="false">M57*H57</f>
-        <v>6480</v>
+        <v>0</v>
       </c>
       <c r="O57" s="10"/>
-      <c r="P57" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S57" s="10"/>
       <c r="T57" s="12"/>
       <c r="U57" s="13"/>
       <c r="V57" s="12"/>
@@ -4425,16 +3732,16 @@
         <v>4</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>50</v>
@@ -4442,34 +3749,24 @@
       <c r="H58" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I58" s="9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J58" s="9" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M58" s="10" t="n">
-        <v>152</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M58" s="10"/>
       <c r="N58" s="9" t="n">
         <f aca="false">M58*H58</f>
-        <v>1520</v>
+        <v>0</v>
       </c>
       <c r="O58" s="10"/>
-      <c r="P58" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
-      <c r="S58" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S58" s="10"/>
       <c r="T58" s="12"/>
       <c r="U58" s="13"/>
       <c r="V58" s="12"/>
@@ -4484,16 +3781,16 @@
         <v>40</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>50</v>
@@ -4501,34 +3798,24 @@
       <c r="H59" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="I59" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M59" s="10" t="n">
-        <v>3250</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M59" s="10"/>
       <c r="N59" s="9" t="n">
         <f aca="false">M59*H59</f>
-        <v>16250</v>
+        <v>0</v>
       </c>
       <c r="O59" s="10"/>
-      <c r="P59" s="10" t="s">
-        <v>195</v>
-      </c>
+      <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
-      <c r="S59" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S59" s="10"/>
       <c r="T59" s="12"/>
       <c r="U59" s="13"/>
       <c r="V59" s="12"/>
@@ -4543,16 +3830,16 @@
         <v>44</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>50</v>
@@ -4560,34 +3847,24 @@
       <c r="H60" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="I60" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J60" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
       <c r="K60" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M60" s="10" t="n">
-        <v>2567</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M60" s="10"/>
       <c r="N60" s="9" t="n">
         <f aca="false">M60*H60</f>
-        <v>102680</v>
+        <v>0</v>
       </c>
       <c r="O60" s="10"/>
-      <c r="P60" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
-      <c r="S60" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S60" s="10"/>
       <c r="T60" s="12"/>
       <c r="U60" s="13"/>
       <c r="V60" s="12"/>
@@ -4602,16 +3879,16 @@
         <v>37</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>50</v>
@@ -4619,34 +3896,24 @@
       <c r="H61" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="I61" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
       <c r="K61" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M61" s="10" t="n">
-        <v>432</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M61" s="10"/>
       <c r="N61" s="9" t="n">
         <f aca="false">M61*H61</f>
-        <v>3024</v>
+        <v>0</v>
       </c>
       <c r="O61" s="10"/>
-      <c r="P61" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
-      <c r="S61" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S61" s="10"/>
       <c r="T61" s="12"/>
       <c r="U61" s="13"/>
       <c r="V61" s="12"/>
@@ -4661,16 +3928,16 @@
         <v>38</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>50</v>
@@ -4678,34 +3945,24 @@
       <c r="H62" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="I62" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M62" s="10" t="n">
-        <v>548</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M62" s="10"/>
       <c r="N62" s="9" t="n">
         <f aca="false">M62*H62</f>
-        <v>1096</v>
+        <v>0</v>
       </c>
       <c r="O62" s="10"/>
-      <c r="P62" s="10" t="s">
-        <v>203</v>
-      </c>
+      <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
-      <c r="S62" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S62" s="10"/>
       <c r="T62" s="12"/>
       <c r="U62" s="13"/>
       <c r="V62" s="12"/>
@@ -4719,17 +3976,17 @@
       <c r="B63" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>74</v>
+      <c r="C63" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>50</v>
@@ -4737,34 +3994,24 @@
       <c r="H63" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="I63" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="J63" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
       <c r="K63" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M63" s="10" t="n">
-        <v>32000</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M63" s="10"/>
       <c r="N63" s="9" t="n">
         <f aca="false">M63*H63</f>
-        <v>128000</v>
+        <v>0</v>
       </c>
       <c r="O63" s="10"/>
-      <c r="P63" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
-      <c r="S63" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S63" s="10"/>
       <c r="T63" s="12"/>
       <c r="U63" s="13"/>
       <c r="V63" s="12"/>
@@ -4779,16 +4026,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>50</v>
@@ -4796,34 +4043,24 @@
       <c r="H64" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="I64" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M64" s="10" t="n">
-        <v>548</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M64" s="10"/>
       <c r="N64" s="9" t="n">
         <f aca="false">M64*H64</f>
-        <v>8220</v>
+        <v>0</v>
       </c>
       <c r="O64" s="10"/>
-      <c r="P64" s="10" t="s">
-        <v>203</v>
-      </c>
+      <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
-      <c r="S64" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S64" s="10"/>
       <c r="T64" s="12"/>
       <c r="U64" s="13"/>
       <c r="V64" s="12"/>
@@ -4838,16 +4075,16 @@
         <v>46</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>50</v>
@@ -4855,34 +4092,24 @@
       <c r="H65" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I65" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J65" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="M65" s="10" t="n">
-        <v>3850</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M65" s="10"/>
       <c r="N65" s="9" t="n">
         <f aca="false">M65*H65</f>
-        <v>38500</v>
+        <v>0</v>
       </c>
       <c r="O65" s="10"/>
-      <c r="P65" s="10" t="s">
-        <v>212</v>
-      </c>
+      <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
-      <c r="S65" s="10" t="s">
-        <v>213</v>
-      </c>
+      <c r="S65" s="10"/>
       <c r="T65" s="12"/>
       <c r="U65" s="13"/>
       <c r="V65" s="12"/>
@@ -4897,16 +4124,16 @@
         <v>6</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>50</v>
@@ -4914,34 +4141,24 @@
       <c r="H66" s="10" t="n">
         <v>115</v>
       </c>
-      <c r="I66" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M66" s="10" t="n">
-        <v>3850</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M66" s="10"/>
       <c r="N66" s="9" t="n">
         <f aca="false">M66*H66</f>
-        <v>442750</v>
+        <v>0</v>
       </c>
       <c r="O66" s="10"/>
-      <c r="P66" s="10" t="s">
-        <v>212</v>
-      </c>
+      <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
-      <c r="S66" s="10" t="s">
-        <v>213</v>
-      </c>
+      <c r="S66" s="10"/>
       <c r="T66" s="12"/>
       <c r="U66" s="13"/>
       <c r="V66" s="12"/>
@@ -4956,16 +4173,16 @@
         <v>64</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>50</v>
@@ -4973,34 +4190,24 @@
       <c r="H67" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="I67" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J67" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
       <c r="K67" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M67" s="10" t="n">
-        <v>5483</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M67" s="10"/>
       <c r="N67" s="9" t="n">
         <f aca="false">M67*H67</f>
-        <v>548300</v>
+        <v>0</v>
       </c>
       <c r="O67" s="10"/>
-      <c r="P67" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
-      <c r="S67" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="S67" s="10"/>
       <c r="T67" s="12"/>
       <c r="U67" s="13"/>
       <c r="V67" s="12"/>
@@ -5015,16 +4222,16 @@
         <v>47</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>50</v>
@@ -5032,34 +4239,24 @@
       <c r="H68" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I68" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="M68" s="10" t="n">
-        <v>758</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M68" s="10"/>
       <c r="N68" s="9" t="n">
         <f aca="false">M68*H68</f>
-        <v>7580</v>
+        <v>0</v>
       </c>
       <c r="O68" s="10"/>
-      <c r="P68" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
-      <c r="S68" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S68" s="10"/>
       <c r="T68" s="12"/>
       <c r="U68" s="13"/>
       <c r="V68" s="12"/>
@@ -5074,16 +4271,16 @@
         <v>45</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>51</v>
@@ -5091,34 +4288,24 @@
       <c r="H69" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="I69" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J69" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
       <c r="K69" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="M69" s="10" t="n">
-        <v>2567</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M69" s="10"/>
       <c r="N69" s="9" t="n">
         <f aca="false">M69*H69</f>
-        <v>256700</v>
+        <v>0</v>
       </c>
       <c r="O69" s="10"/>
-      <c r="P69" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
-      <c r="S69" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S69" s="10"/>
       <c r="T69" s="12"/>
       <c r="U69" s="13"/>
       <c r="V69" s="12"/>
@@ -5133,16 +4320,16 @@
         <v>43</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>50</v>
@@ -5150,34 +4337,24 @@
       <c r="H70" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I70" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
       <c r="K70" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M70" s="10" t="n">
-        <v>770</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M70" s="10"/>
       <c r="N70" s="9" t="n">
         <f aca="false">M70*H70</f>
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="O70" s="10"/>
-      <c r="P70" s="10" t="s">
-        <v>224</v>
-      </c>
+      <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
-      <c r="S70" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S70" s="10"/>
       <c r="T70" s="12"/>
       <c r="U70" s="13"/>
       <c r="V70" s="12"/>
@@ -5192,16 +4369,16 @@
         <v>3</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>50</v>
@@ -5209,34 +4386,24 @@
       <c r="H71" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="I71" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J71" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
       <c r="K71" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M71" s="10" t="n">
-        <v>2567</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M71" s="10"/>
       <c r="N71" s="9" t="n">
         <f aca="false">M71*H71</f>
-        <v>513400</v>
+        <v>0</v>
       </c>
       <c r="O71" s="10"/>
-      <c r="P71" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
-      <c r="S71" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S71" s="10"/>
       <c r="T71" s="12"/>
       <c r="U71" s="13"/>
       <c r="V71" s="12"/>
@@ -5251,16 +4418,16 @@
         <v>91</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>50</v>
@@ -5268,34 +4435,24 @@
       <c r="H72" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I72" s="9" t="n">
-        <v>1500</v>
-      </c>
-      <c r="J72" s="9" t="n">
-        <v>1500</v>
-      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
       <c r="K72" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M72" s="10" t="n">
-        <v>373333</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M72" s="10"/>
       <c r="N72" s="9" t="n">
         <f aca="false">M72*H72</f>
-        <v>373333</v>
+        <v>0</v>
       </c>
       <c r="O72" s="10"/>
-      <c r="P72" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
-      <c r="S72" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S72" s="10"/>
       <c r="T72" s="12"/>
       <c r="U72" s="13"/>
       <c r="V72" s="12"/>
@@ -5310,16 +4467,16 @@
         <v>94</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>50</v>
@@ -5327,34 +4484,24 @@
       <c r="H73" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I73" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="J73" s="9" t="n">
-        <v>100</v>
-      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
       <c r="K73" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M73" s="10" t="n">
-        <v>140000</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M73" s="10"/>
       <c r="N73" s="9" t="n">
         <f aca="false">M73*H73</f>
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="O73" s="10"/>
-      <c r="P73" s="10" t="s">
-        <v>230</v>
-      </c>
+      <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
-      <c r="S73" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S73" s="10"/>
       <c r="T73" s="12"/>
       <c r="U73" s="13"/>
       <c r="V73" s="12"/>
@@ -5369,16 +4516,16 @@
         <v>93</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>50</v>
@@ -5386,34 +4533,24 @@
       <c r="H74" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I74" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="J74" s="9" t="n">
-        <v>50</v>
-      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
       <c r="K74" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M74" s="10" t="n">
-        <v>260000</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M74" s="10"/>
       <c r="N74" s="9" t="n">
         <f aca="false">M74*H74</f>
-        <v>260000</v>
+        <v>0</v>
       </c>
       <c r="O74" s="10"/>
-      <c r="P74" s="10" t="s">
-        <v>233</v>
-      </c>
+      <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
-      <c r="S74" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S74" s="10"/>
       <c r="T74" s="12"/>
       <c r="U74" s="13"/>
       <c r="V74" s="12"/>
@@ -5428,16 +4565,16 @@
         <v>99</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>50</v>
@@ -5445,34 +4582,24 @@
       <c r="H75" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I75" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M75" s="10" t="n">
-        <v>1100</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M75" s="10"/>
       <c r="N75" s="9" t="n">
         <f aca="false">M75*H75</f>
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="O75" s="10"/>
-      <c r="P75" s="10" t="s">
-        <v>236</v>
-      </c>
+      <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
-      <c r="S75" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S75" s="10"/>
       <c r="T75" s="12"/>
       <c r="U75" s="13"/>
       <c r="V75" s="12"/>
@@ -5487,16 +4614,16 @@
         <v>100</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>50</v>
@@ -5504,34 +4631,24 @@
       <c r="H76" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I76" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
       <c r="K76" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M76" s="10" t="n">
-        <v>1101</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M76" s="10"/>
       <c r="N76" s="9" t="n">
         <f aca="false">M76*H76</f>
-        <v>22020</v>
+        <v>0</v>
       </c>
       <c r="O76" s="10"/>
-      <c r="P76" s="17" t="s">
-        <v>239</v>
-      </c>
+      <c r="P76" s="16"/>
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
-      <c r="S76" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S76" s="10"/>
       <c r="T76" s="12"/>
       <c r="U76" s="13"/>
       <c r="V76" s="12"/>
@@ -5546,16 +4663,16 @@
         <v>98</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>50</v>
@@ -5563,34 +4680,24 @@
       <c r="H77" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I77" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
       <c r="K77" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M77" s="10" t="n">
-        <v>1102</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M77" s="10"/>
       <c r="N77" s="9" t="n">
         <f aca="false">M77*H77</f>
-        <v>22040</v>
+        <v>0</v>
       </c>
       <c r="O77" s="10"/>
-      <c r="P77" s="17" t="s">
-        <v>242</v>
-      </c>
+      <c r="P77" s="16"/>
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
-      <c r="S77" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S77" s="10"/>
       <c r="T77" s="12"/>
       <c r="U77" s="13"/>
       <c r="V77" s="12"/>
@@ -5604,17 +4711,17 @@
       <c r="B78" s="9" t="n">
         <v>97</v>
       </c>
-      <c r="C78" s="16" t="s">
-        <v>74</v>
+      <c r="C78" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>50</v>
@@ -5622,34 +4729,24 @@
       <c r="H78" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I78" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
       <c r="K78" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M78" s="10" t="n">
-        <v>1103</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M78" s="10"/>
       <c r="N78" s="9" t="n">
         <f aca="false">M78*H78</f>
-        <v>22060</v>
+        <v>0</v>
       </c>
       <c r="O78" s="10"/>
-      <c r="P78" s="17" t="s">
-        <v>244</v>
-      </c>
+      <c r="P78" s="16"/>
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
-      <c r="S78" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S78" s="10"/>
       <c r="T78" s="12"/>
       <c r="U78" s="13"/>
       <c r="V78" s="12"/>
@@ -5664,16 +4761,16 @@
         <v>96</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>50</v>
@@ -5681,34 +4778,24 @@
       <c r="H79" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I79" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
       <c r="K79" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M79" s="10" t="n">
-        <v>1104</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M79" s="10"/>
       <c r="N79" s="9" t="n">
         <f aca="false">M79*H79</f>
-        <v>22080</v>
+        <v>0</v>
       </c>
       <c r="O79" s="10"/>
-      <c r="P79" s="17" t="s">
-        <v>247</v>
-      </c>
+      <c r="P79" s="16"/>
       <c r="Q79" s="10"/>
       <c r="R79" s="10"/>
-      <c r="S79" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S79" s="10"/>
       <c r="T79" s="12"/>
       <c r="U79" s="13"/>
       <c r="V79" s="12"/>
@@ -5723,16 +4810,16 @@
         <v>95</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>50</v>
@@ -5740,34 +4827,24 @@
       <c r="H80" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I80" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J80" s="9" t="n">
-        <v>6</v>
-      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
       <c r="K80" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M80" s="10" t="n">
-        <v>1105</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M80" s="10"/>
       <c r="N80" s="9" t="n">
         <f aca="false">M80*H80</f>
-        <v>22100</v>
+        <v>0</v>
       </c>
       <c r="O80" s="10"/>
-      <c r="P80" s="17" t="s">
-        <v>250</v>
-      </c>
+      <c r="P80" s="16"/>
       <c r="Q80" s="10"/>
       <c r="R80" s="10"/>
-      <c r="S80" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S80" s="10"/>
       <c r="T80" s="12"/>
       <c r="U80" s="13"/>
       <c r="V80" s="12"/>
@@ -5782,16 +4859,16 @@
         <v>61</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>51</v>
@@ -5799,34 +4876,24 @@
       <c r="H81" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="I81" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
       <c r="K81" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M81" s="10" t="n">
-        <v>700</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M81" s="10"/>
       <c r="N81" s="9" t="n">
         <f aca="false">M81*H81</f>
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="O81" s="10"/>
-      <c r="P81" s="10" t="s">
-        <v>171</v>
-      </c>
+      <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
       <c r="R81" s="10"/>
-      <c r="S81" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S81" s="10"/>
       <c r="T81" s="12"/>
       <c r="U81" s="13"/>
       <c r="V81" s="12"/>
@@ -5841,16 +4908,16 @@
         <v>53</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>50</v>
@@ -5858,34 +4925,24 @@
       <c r="H82" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I82" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
       <c r="K82" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M82" s="10" t="n">
-        <v>2100</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M82" s="10"/>
       <c r="N82" s="9" t="n">
         <f aca="false">M82*H82</f>
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="O82" s="10"/>
-      <c r="P82" s="10" t="s">
-        <v>255</v>
-      </c>
+      <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
       <c r="R82" s="10"/>
-      <c r="S82" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S82" s="10"/>
       <c r="T82" s="12"/>
       <c r="U82" s="13"/>
       <c r="V82" s="12"/>
@@ -5900,16 +4957,16 @@
         <v>54</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>50</v>
@@ -5917,34 +4974,24 @@
       <c r="H83" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I83" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="J83" s="9" t="n">
-        <v>40</v>
-      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
       <c r="K83" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M83" s="10" t="n">
-        <v>14600</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M83" s="10"/>
       <c r="N83" s="9" t="n">
         <f aca="false">M83*H83</f>
-        <v>292000</v>
+        <v>0</v>
       </c>
       <c r="O83" s="10"/>
-      <c r="P83" s="10" t="s">
-        <v>258</v>
-      </c>
+      <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
       <c r="R83" s="10"/>
-      <c r="S83" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="S83" s="10"/>
       <c r="T83" s="12"/>
       <c r="U83" s="13"/>
       <c r="V83" s="12"/>
@@ -5959,16 +5006,16 @@
         <v>60</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>50</v>
@@ -5976,34 +5023,24 @@
       <c r="H84" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="I84" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
       <c r="K84" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M84" s="10" t="n">
-        <v>4300</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M84" s="10"/>
       <c r="N84" s="9" t="n">
         <f aca="false">M84*H84</f>
-        <v>129000</v>
+        <v>0</v>
       </c>
       <c r="O84" s="10"/>
-      <c r="P84" s="10" t="s">
-        <v>261</v>
-      </c>
+      <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
-      <c r="S84" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S84" s="10"/>
       <c r="T84" s="12"/>
       <c r="U84" s="13"/>
       <c r="V84" s="12"/>
@@ -6018,16 +5055,16 @@
         <v>56</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>50</v>
@@ -6035,34 +5072,24 @@
       <c r="H85" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="I85" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
       <c r="K85" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M85" s="10" t="n">
-        <v>2100</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M85" s="10"/>
       <c r="N85" s="9" t="n">
         <f aca="false">M85*H85</f>
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="O85" s="10"/>
-      <c r="P85" s="10" t="s">
-        <v>264</v>
-      </c>
+      <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
       <c r="R85" s="10"/>
-      <c r="S85" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S85" s="10"/>
       <c r="T85" s="12"/>
       <c r="U85" s="13"/>
       <c r="V85" s="12"/>
@@ -6077,16 +5104,16 @@
         <v>59</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>50</v>
@@ -6094,34 +5121,24 @@
       <c r="H86" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="I86" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
       <c r="K86" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M86" s="10" t="n">
-        <v>245</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M86" s="10"/>
       <c r="N86" s="9" t="n">
         <f aca="false">M86*H86</f>
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="O86" s="10"/>
-      <c r="P86" s="10" t="s">
-        <v>267</v>
-      </c>
+      <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
       <c r="R86" s="10"/>
-      <c r="S86" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S86" s="10"/>
       <c r="T86" s="12"/>
       <c r="U86" s="13"/>
       <c r="V86" s="12"/>
@@ -6136,16 +5153,16 @@
         <v>55</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>50</v>
@@ -6153,34 +5170,24 @@
       <c r="H87" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="I87" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="J87" s="9" t="n">
-        <v>30</v>
-      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
       <c r="K87" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M87" s="10" t="n">
-        <v>14500</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M87" s="10"/>
       <c r="N87" s="9" t="n">
         <f aca="false">M87*H87</f>
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="O87" s="10"/>
-      <c r="P87" s="10" t="s">
-        <v>270</v>
-      </c>
+      <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
       <c r="R87" s="10"/>
-      <c r="S87" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S87" s="10"/>
       <c r="T87" s="12"/>
       <c r="U87" s="13"/>
       <c r="V87" s="12"/>
@@ -6195,16 +5202,16 @@
         <v>39</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>50</v>
@@ -6212,34 +5219,24 @@
       <c r="H88" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="I88" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
       <c r="K88" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L88" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M88" s="10" t="n">
-        <v>2188</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M88" s="10"/>
       <c r="N88" s="9" t="n">
         <f aca="false">M88*H88</f>
-        <v>4376</v>
+        <v>0</v>
       </c>
       <c r="O88" s="10"/>
-      <c r="P88" s="10" t="s">
-        <v>273</v>
-      </c>
+      <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
       <c r="R88" s="10"/>
-      <c r="S88" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S88" s="10"/>
       <c r="T88" s="12"/>
       <c r="U88" s="13"/>
       <c r="V88" s="12"/>
@@ -6254,16 +5251,16 @@
         <v>68</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>50</v>
@@ -6271,34 +5268,24 @@
       <c r="H89" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="I89" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="J89" s="9" t="n">
-        <v>30</v>
-      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
       <c r="K89" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M89" s="10" t="n">
-        <v>11317</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M89" s="10"/>
       <c r="N89" s="9" t="n">
         <f aca="false">M89*H89</f>
-        <v>339510</v>
+        <v>0</v>
       </c>
       <c r="O89" s="10"/>
-      <c r="P89" s="10" t="s">
-        <v>276</v>
-      </c>
+      <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
       <c r="R89" s="10"/>
-      <c r="S89" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S89" s="10"/>
       <c r="T89" s="12"/>
       <c r="U89" s="13"/>
       <c r="V89" s="12"/>
@@ -6313,16 +5300,16 @@
         <v>48</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>50</v>
@@ -6330,34 +5317,24 @@
       <c r="H90" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I90" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
       <c r="K90" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="M90" s="10" t="n">
-        <v>1692</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M90" s="10"/>
       <c r="N90" s="9" t="n">
         <f aca="false">M90*H90</f>
-        <v>16920</v>
+        <v>0</v>
       </c>
       <c r="O90" s="10"/>
-      <c r="P90" s="10" t="s">
-        <v>279</v>
-      </c>
+      <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
       <c r="R90" s="10"/>
-      <c r="S90" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S90" s="10"/>
       <c r="T90" s="12"/>
       <c r="U90" s="13"/>
       <c r="V90" s="12"/>
@@ -6372,16 +5349,16 @@
         <v>57</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>51</v>
@@ -6389,34 +5366,24 @@
       <c r="H91" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I91" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
       <c r="K91" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M91" s="10" t="n">
-        <v>6500</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M91" s="10"/>
       <c r="N91" s="9" t="n">
         <f aca="false">M91*H91</f>
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="O91" s="10"/>
-      <c r="P91" s="10" t="s">
-        <v>283</v>
-      </c>
+      <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
       <c r="R91" s="10"/>
-      <c r="S91" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S91" s="10"/>
       <c r="T91" s="12"/>
       <c r="U91" s="13"/>
       <c r="V91" s="12"/>
@@ -6431,16 +5398,16 @@
         <v>58</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>50</v>
@@ -6448,34 +5415,24 @@
       <c r="H92" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="I92" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J92" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
       <c r="K92" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M92" s="10" t="n">
-        <v>65</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M92" s="10"/>
       <c r="N92" s="9" t="n">
         <f aca="false">M92*H92</f>
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="O92" s="10"/>
-      <c r="P92" s="10" t="s">
-        <v>286</v>
-      </c>
+      <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
       <c r="R92" s="10"/>
-      <c r="S92" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S92" s="10"/>
       <c r="T92" s="12"/>
       <c r="U92" s="13"/>
       <c r="V92" s="12"/>
@@ -6490,16 +5447,16 @@
         <v>67</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>50</v>
@@ -6507,34 +5464,24 @@
       <c r="H93" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="I93" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" s="9" t="n">
-        <v>40</v>
-      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
       <c r="K93" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M93" s="10" t="n">
-        <v>14000</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M93" s="10"/>
       <c r="N93" s="9" t="n">
         <f aca="false">M93*H93</f>
-        <v>420000</v>
+        <v>0</v>
       </c>
       <c r="O93" s="10"/>
-      <c r="P93" s="10" t="s">
-        <v>289</v>
-      </c>
+      <c r="P93" s="10"/>
       <c r="Q93" s="10"/>
       <c r="R93" s="10"/>
-      <c r="S93" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S93" s="10"/>
       <c r="T93" s="12"/>
       <c r="U93" s="13"/>
       <c r="V93" s="12"/>
@@ -6549,16 +5496,16 @@
         <v>102</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>50</v>
@@ -6566,34 +5513,24 @@
       <c r="H94" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I94" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="J94" s="9" t="n">
-        <v>100</v>
-      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
       <c r="K94" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M94" s="10" t="n">
-        <v>320000</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M94" s="10"/>
       <c r="N94" s="9" t="n">
         <f aca="false">M94*H94</f>
-        <v>320000</v>
+        <v>0</v>
       </c>
       <c r="O94" s="10"/>
-      <c r="P94" s="10" t="s">
-        <v>292</v>
-      </c>
+      <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
       <c r="R94" s="10"/>
-      <c r="S94" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S94" s="10"/>
       <c r="T94" s="12"/>
       <c r="U94" s="13"/>
       <c r="V94" s="12"/>
@@ -6608,16 +5545,16 @@
         <v>41</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>50</v>
@@ -6625,34 +5562,24 @@
       <c r="H95" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I95" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
       <c r="K95" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L95" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M95" s="10" t="n">
-        <v>2750</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M95" s="10"/>
       <c r="N95" s="9" t="n">
         <f aca="false">M95*H95</f>
-        <v>27500</v>
+        <v>0</v>
       </c>
       <c r="O95" s="10"/>
-      <c r="P95" s="10" t="s">
-        <v>295</v>
-      </c>
+      <c r="P95" s="10"/>
       <c r="Q95" s="10"/>
       <c r="R95" s="10"/>
-      <c r="S95" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S95" s="10"/>
       <c r="T95" s="12"/>
       <c r="U95" s="13"/>
       <c r="V95" s="12"/>
@@ -6667,16 +5594,16 @@
         <v>42</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>50</v>
@@ -6684,34 +5611,24 @@
       <c r="H96" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I96" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
       <c r="K96" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M96" s="10" t="n">
-        <v>2500</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M96" s="10"/>
       <c r="N96" s="9" t="n">
         <f aca="false">M96*H96</f>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="O96" s="10"/>
-      <c r="P96" s="10" t="s">
-        <v>298</v>
-      </c>
+      <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
       <c r="R96" s="10"/>
-      <c r="S96" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S96" s="10"/>
       <c r="T96" s="12"/>
       <c r="U96" s="13"/>
       <c r="V96" s="12"/>
@@ -6726,16 +5643,16 @@
         <v>62</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G97" s="9" t="s">
         <v>50</v>
@@ -6743,34 +5660,24 @@
       <c r="H97" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I97" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
       <c r="K97" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L97" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M97" s="10" t="n">
-        <v>1300</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M97" s="10"/>
       <c r="N97" s="9" t="n">
         <f aca="false">M97*H97</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="O97" s="10"/>
-      <c r="P97" s="10" t="s">
-        <v>301</v>
-      </c>
+      <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
       <c r="R97" s="10"/>
-      <c r="S97" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S97" s="10"/>
       <c r="T97" s="12"/>
       <c r="U97" s="13"/>
       <c r="V97" s="12"/>
@@ -6785,16 +5692,16 @@
         <v>11</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>50</v>
@@ -6802,34 +5709,24 @@
       <c r="H98" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="I98" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
       <c r="K98" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M98" s="10" t="n">
-        <v>1283</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M98" s="10"/>
       <c r="N98" s="9" t="n">
         <f aca="false">M98*H98</f>
-        <v>7698</v>
+        <v>0</v>
       </c>
       <c r="O98" s="10"/>
-      <c r="P98" s="10" t="s">
-        <v>304</v>
-      </c>
+      <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
       <c r="R98" s="10"/>
-      <c r="S98" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S98" s="10"/>
       <c r="T98" s="12"/>
       <c r="U98" s="13"/>
       <c r="V98" s="12"/>
@@ -6844,16 +5741,16 @@
         <v>65</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>50</v>
@@ -6861,34 +5758,24 @@
       <c r="H99" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="I99" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
       <c r="K99" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L99" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M99" s="10" t="n">
-        <v>2600</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M99" s="10"/>
       <c r="N99" s="9" t="n">
         <f aca="false">M99*H99</f>
-        <v>104000</v>
+        <v>0</v>
       </c>
       <c r="O99" s="10"/>
-      <c r="P99" s="10" t="s">
-        <v>307</v>
-      </c>
+      <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
       <c r="R99" s="10"/>
-      <c r="S99" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S99" s="10"/>
       <c r="T99" s="12"/>
       <c r="U99" s="13"/>
       <c r="V99" s="12"/>
@@ -6903,16 +5790,16 @@
         <v>89</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>50</v>
@@ -6920,34 +5807,24 @@
       <c r="H100" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="I100" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
       <c r="K100" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M100" s="10" t="n">
-        <v>2300</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M100" s="10"/>
       <c r="N100" s="9" t="n">
         <f aca="false">M100*H100</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="O100" s="10"/>
-      <c r="P100" s="10" t="s">
-        <v>310</v>
-      </c>
+      <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
-      <c r="S100" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S100" s="10"/>
       <c r="T100" s="12"/>
       <c r="U100" s="13"/>
       <c r="V100" s="12"/>
@@ -6962,16 +5839,16 @@
         <v>50</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G101" s="9" t="s">
         <v>50</v>
@@ -6979,34 +5856,24 @@
       <c r="H101" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="I101" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
       <c r="K101" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L101" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M101" s="10" t="n">
-        <v>1015</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M101" s="10"/>
       <c r="N101" s="9" t="n">
         <f aca="false">M101*H101</f>
-        <v>40600</v>
+        <v>0</v>
       </c>
       <c r="O101" s="10"/>
-      <c r="P101" s="10" t="s">
-        <v>313</v>
-      </c>
+      <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
       <c r="R101" s="10"/>
-      <c r="S101" s="10" t="s">
-        <v>314</v>
-      </c>
+      <c r="S101" s="10"/>
       <c r="T101" s="12"/>
       <c r="U101" s="13"/>
       <c r="V101" s="12"/>
@@ -7021,51 +5888,41 @@
         <v>101</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>315</v>
+        <v>235</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="H102" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I102" s="9" t="n">
-        <v>150</v>
-      </c>
-      <c r="J102" s="9" t="n">
-        <v>150</v>
-      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
       <c r="K102" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L102" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M102" s="10" t="n">
-        <v>350000</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M102" s="10"/>
       <c r="N102" s="9" t="n">
         <f aca="false">M102*H102</f>
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="O102" s="10"/>
-      <c r="P102" s="10" t="s">
-        <v>318</v>
-      </c>
+      <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
       <c r="R102" s="10"/>
-      <c r="S102" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S102" s="10"/>
       <c r="T102" s="12"/>
       <c r="U102" s="13"/>
       <c r="V102" s="12"/>
@@ -7080,16 +5937,16 @@
         <v>63</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G103" s="9" t="s">
         <v>50</v>
@@ -7097,34 +5954,24 @@
       <c r="H103" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I103" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
       <c r="K103" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L103" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M103" s="10" t="n">
-        <v>950</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M103" s="10"/>
       <c r="N103" s="9" t="n">
         <f aca="false">M103*H103</f>
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="O103" s="10"/>
-      <c r="P103" s="10" t="s">
-        <v>322</v>
-      </c>
+      <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
       <c r="R103" s="10"/>
-      <c r="S103" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S103" s="10"/>
       <c r="T103" s="12"/>
       <c r="U103" s="13"/>
       <c r="V103" s="12"/>
@@ -7139,16 +5986,16 @@
         <v>66</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G104" s="9" t="s">
         <v>50</v>
@@ -7156,34 +6003,24 @@
       <c r="H104" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I104" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="J104" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
       <c r="K104" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M104" s="10" t="n">
-        <v>60000</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M104" s="10"/>
       <c r="N104" s="9" t="n">
         <f aca="false">M104*H104</f>
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="O104" s="10"/>
-      <c r="P104" s="10" t="s">
-        <v>326</v>
-      </c>
+      <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
       <c r="R104" s="10"/>
-      <c r="S104" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="S104" s="10"/>
       <c r="T104" s="12"/>
       <c r="U104" s="13"/>
       <c r="V104" s="12"/>
@@ -7198,51 +6035,41 @@
         <v>10</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="H105" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="I105" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="J105" s="9" t="n">
-        <v>15</v>
-      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
       <c r="K105" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L105" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M105" s="10" t="n">
-        <v>140</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M105" s="10"/>
       <c r="N105" s="9" t="n">
         <f aca="false">M105*H105</f>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="O105" s="10"/>
-      <c r="P105" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
       <c r="R105" s="10"/>
-      <c r="S105" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S105" s="10"/>
       <c r="T105" s="12"/>
       <c r="U105" s="13"/>
       <c r="V105" s="12"/>
@@ -7257,16 +6084,16 @@
         <v>73</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G106" s="9" t="s">
         <v>50</v>
@@ -7274,34 +6101,24 @@
       <c r="H106" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I106" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="J106" s="9" t="n">
-        <v>200</v>
-      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
       <c r="K106" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M106" s="10" t="n">
-        <v>320000</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M106" s="10"/>
       <c r="N106" s="9" t="n">
         <f aca="false">M106*H106</f>
-        <v>320000</v>
+        <v>0</v>
       </c>
       <c r="O106" s="10"/>
-      <c r="P106" s="10" t="s">
-        <v>332</v>
-      </c>
+      <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
       <c r="R106" s="10"/>
-      <c r="S106" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S106" s="10"/>
       <c r="T106" s="12"/>
       <c r="U106" s="13"/>
       <c r="V106" s="12"/>
@@ -7316,16 +6133,16 @@
         <v>90</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>333</v>
+        <v>249</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>50</v>
@@ -7333,34 +6150,24 @@
       <c r="H107" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I107" s="9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J107" s="9" t="n">
-        <v>1000</v>
-      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
       <c r="K107" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M107" s="10" t="n">
-        <v>740000</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M107" s="10"/>
       <c r="N107" s="9" t="n">
         <f aca="false">M107*H107</f>
-        <v>740000</v>
+        <v>0</v>
       </c>
       <c r="O107" s="10"/>
-      <c r="P107" s="10" t="s">
-        <v>336</v>
-      </c>
+      <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
       <c r="R107" s="10"/>
-      <c r="S107" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S107" s="10"/>
       <c r="T107" s="12"/>
       <c r="U107" s="13"/>
       <c r="V107" s="12"/>
@@ -7375,16 +6182,16 @@
         <v>92</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G108" s="9" t="s">
         <v>50</v>
@@ -7392,34 +6199,24 @@
       <c r="H108" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I108" s="9" t="n">
-        <v>150</v>
-      </c>
-      <c r="J108" s="9" t="n">
-        <v>150</v>
-      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
       <c r="K108" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L108" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M108" s="10" t="n">
-        <v>640000</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M108" s="10"/>
       <c r="N108" s="9" t="n">
         <f aca="false">M108*H108</f>
-        <v>640000</v>
+        <v>0</v>
       </c>
       <c r="O108" s="10"/>
-      <c r="P108" s="10" t="s">
-        <v>340</v>
-      </c>
+      <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
       <c r="R108" s="10"/>
-      <c r="S108" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S108" s="10"/>
       <c r="T108" s="12"/>
       <c r="U108" s="13"/>
       <c r="V108" s="12"/>
@@ -7434,16 +6231,16 @@
         <v>72</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>341</v>
+        <v>255</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>50</v>
@@ -7451,34 +6248,24 @@
       <c r="H109" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I109" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J109" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
       <c r="K109" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L109" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M109" s="10" t="n">
-        <v>55000</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M109" s="10"/>
       <c r="N109" s="9" t="n">
         <f aca="false">M109*H109</f>
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="O109" s="10"/>
-      <c r="P109" s="10" t="s">
-        <v>343</v>
-      </c>
+      <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
       <c r="R109" s="10"/>
-      <c r="S109" s="10" t="s">
-        <v>344</v>
-      </c>
+      <c r="S109" s="10"/>
       <c r="T109" s="12"/>
       <c r="U109" s="13"/>
       <c r="V109" s="12"/>
@@ -7493,16 +6280,16 @@
         <v>71</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>50</v>
@@ -7510,34 +6297,24 @@
       <c r="H110" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="I110" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J110" s="9" t="n">
-        <v>5</v>
-      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
       <c r="K110" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L110" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M110" s="10" t="n">
-        <v>5367</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M110" s="10"/>
       <c r="N110" s="9" t="n">
         <f aca="false">M110*H110</f>
-        <v>53670</v>
+        <v>0</v>
       </c>
       <c r="O110" s="10"/>
-      <c r="P110" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
       <c r="R110" s="10"/>
-      <c r="S110" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S110" s="10"/>
       <c r="T110" s="12"/>
       <c r="U110" s="13"/>
       <c r="V110" s="12"/>
@@ -7552,16 +6329,16 @@
         <v>69</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>50</v>
@@ -7569,34 +6346,24 @@
       <c r="H111" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="I111" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
       <c r="K111" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L111" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M111" s="10" t="n">
-        <v>1300</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M111" s="10"/>
       <c r="N111" s="9" t="n">
         <f aca="false">M111*H111</f>
-        <v>45500</v>
+        <v>0</v>
       </c>
       <c r="O111" s="10"/>
-      <c r="P111" s="10" t="s">
-        <v>348</v>
-      </c>
+      <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
       <c r="R111" s="10"/>
-      <c r="S111" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S111" s="10"/>
       <c r="T111" s="12"/>
       <c r="U111" s="13"/>
       <c r="V111" s="12"/>
@@ -7611,16 +6378,16 @@
         <v>70</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>350</v>
+        <v>261</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>50</v>
@@ -7628,34 +6395,24 @@
       <c r="H112" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="I112" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
       <c r="K112" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L112" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M112" s="10" t="n">
-        <v>1300</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M112" s="10"/>
       <c r="N112" s="9" t="n">
         <f aca="false">M112*H112</f>
-        <v>45500</v>
+        <v>0</v>
       </c>
       <c r="O112" s="10"/>
-      <c r="P112" s="10" t="s">
-        <v>348</v>
-      </c>
+      <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
       <c r="R112" s="10"/>
-      <c r="S112" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S112" s="10"/>
       <c r="T112" s="12"/>
       <c r="U112" s="13"/>
       <c r="V112" s="12"/>
@@ -7670,16 +6427,16 @@
         <v>36</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>352</v>
+        <v>263</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>353</v>
+        <v>264</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>50</v>
@@ -7687,34 +6444,24 @@
       <c r="H113" s="10" t="n">
         <v>150</v>
       </c>
-      <c r="I113" s="9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J113" s="9" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
       <c r="K113" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L113" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M113" s="10" t="n">
-        <v>55</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M113" s="10"/>
       <c r="N113" s="9" t="n">
         <f aca="false">M113*H113</f>
-        <v>8250</v>
+        <v>0</v>
       </c>
       <c r="O113" s="10"/>
-      <c r="P113" s="10" t="s">
-        <v>354</v>
-      </c>
+      <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
       <c r="R113" s="10"/>
-      <c r="S113" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S113" s="10"/>
       <c r="T113" s="12"/>
       <c r="U113" s="13"/>
       <c r="V113" s="12"/>
@@ -7729,16 +6476,16 @@
         <v>35</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>355</v>
+        <v>265</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G114" s="9" t="s">
         <v>50</v>
@@ -7746,34 +6493,24 @@
       <c r="H114" s="10" t="n">
         <v>150</v>
       </c>
-      <c r="I114" s="9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J114" s="9" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
       <c r="K114" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M114" s="10" t="n">
-        <v>55</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M114" s="10"/>
       <c r="N114" s="9" t="n">
         <f aca="false">M114*H114</f>
-        <v>8250</v>
+        <v>0</v>
       </c>
       <c r="O114" s="10"/>
-      <c r="P114" s="10" t="s">
-        <v>357</v>
-      </c>
+      <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
       <c r="R114" s="10"/>
-      <c r="S114" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S114" s="10"/>
       <c r="T114" s="12"/>
       <c r="U114" s="13"/>
       <c r="V114" s="12"/>
@@ -7788,16 +6525,16 @@
         <v>34</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>358</v>
+        <v>267</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G115" s="9" t="s">
         <v>50</v>
@@ -7805,34 +6542,24 @@
       <c r="H115" s="10" t="n">
         <v>150</v>
       </c>
-      <c r="I115" s="9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J115" s="9" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
       <c r="K115" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L115" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M115" s="10" t="n">
-        <v>55</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M115" s="10"/>
       <c r="N115" s="9" t="n">
         <f aca="false">M115*H115</f>
-        <v>8250</v>
+        <v>0</v>
       </c>
       <c r="O115" s="10"/>
-      <c r="P115" s="10" t="s">
-        <v>360</v>
-      </c>
+      <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
       <c r="R115" s="10"/>
-      <c r="S115" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S115" s="10"/>
       <c r="T115" s="12"/>
       <c r="U115" s="13"/>
       <c r="V115" s="12"/>
@@ -7847,16 +6574,16 @@
         <v>33</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>362</v>
+        <v>270</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G116" s="9" t="s">
         <v>50</v>
@@ -7864,34 +6591,24 @@
       <c r="H116" s="10" t="n">
         <v>150</v>
       </c>
-      <c r="I116" s="9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J116" s="9" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
       <c r="K116" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L116" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M116" s="10" t="n">
-        <v>55</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M116" s="10"/>
       <c r="N116" s="9" t="n">
         <f aca="false">M116*H116</f>
-        <v>8250</v>
+        <v>0</v>
       </c>
       <c r="O116" s="10"/>
-      <c r="P116" s="10" t="s">
-        <v>363</v>
-      </c>
+      <c r="P116" s="10"/>
       <c r="Q116" s="10"/>
       <c r="R116" s="10"/>
-      <c r="S116" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S116" s="10"/>
       <c r="T116" s="12"/>
       <c r="U116" s="13"/>
       <c r="V116" s="12"/>
@@ -7906,16 +6623,16 @@
         <v>7</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>365</v>
+        <v>272</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G117" s="9" t="s">
         <v>50</v>
@@ -7923,34 +6640,24 @@
       <c r="H117" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="I117" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
       <c r="K117" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L117" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M117" s="10" t="n">
-        <v>1692</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M117" s="10"/>
       <c r="N117" s="9" t="n">
         <f aca="false">M117*H117</f>
-        <v>25380</v>
+        <v>0</v>
       </c>
       <c r="O117" s="10"/>
-      <c r="P117" s="10" t="s">
-        <v>279</v>
-      </c>
+      <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
       <c r="R117" s="10"/>
-      <c r="S117" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S117" s="10"/>
       <c r="T117" s="12"/>
       <c r="U117" s="13"/>
       <c r="V117" s="12"/>
@@ -7965,16 +6672,16 @@
         <v>5</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>50</v>
@@ -7982,34 +6689,24 @@
       <c r="H118" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="I118" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
       <c r="K118" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L118" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="M118" s="10" t="n">
-        <v>758</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M118" s="10"/>
       <c r="N118" s="9" t="n">
         <f aca="false">M118*H118</f>
-        <v>15160</v>
+        <v>0</v>
       </c>
       <c r="O118" s="10"/>
-      <c r="P118" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="P118" s="10"/>
       <c r="Q118" s="10"/>
       <c r="R118" s="10"/>
-      <c r="S118" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="S118" s="10"/>
       <c r="T118" s="12"/>
       <c r="U118" s="13"/>
       <c r="V118" s="12"/>
@@ -8018,80 +6715,80 @@
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="12"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="20"/>
-      <c r="N119" s="21"/>
-      <c r="O119" s="22"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="20"/>
+      <c r="O119" s="21"/>
       <c r="P119" s="10"/>
       <c r="Q119" s="10"/>
       <c r="R119" s="10"/>
       <c r="S119" s="10"/>
-      <c r="U119" s="23"/>
-      <c r="W119" s="24"/>
+      <c r="U119" s="22"/>
+      <c r="W119" s="23"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="25"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="25"/>
-      <c r="N120" s="26" t="n">
+      <c r="A120" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="25" t="n">
         <f aca="false">SUM(N17:N119)</f>
-        <v>10379738</v>
-      </c>
-      <c r="O120" s="26"/>
-      <c r="P120" s="27"/>
-      <c r="Q120" s="27"/>
-      <c r="R120" s="27"/>
-      <c r="S120" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="O120" s="25"/>
+      <c r="P120" s="26"/>
+      <c r="Q120" s="26"/>
+      <c r="R120" s="26"/>
+      <c r="S120" s="26"/>
       <c r="T120" s="12"/>
-      <c r="U120" s="24"/>
-      <c r="V120" s="28"/>
-      <c r="W120" s="24"/>
+      <c r="U120" s="23"/>
+      <c r="V120" s="27"/>
+      <c r="W120" s="23"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="3" t="s">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3" t="s">
-        <v>370</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="C125" s="29"/>
+      <c r="B125" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="28"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
@@ -8105,7 +6802,7 @@
     <row r="133" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="134" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>372</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8115,7 +6812,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>373</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8127,42 +6824,42 @@
     </row>
     <row r="140" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>374</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>375</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>376</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>377</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>378</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>379</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>380</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>381</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8441,94 +7138,94 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C78 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>382</v>
+      <c r="A1" s="29" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>383</v>
+      <c r="A2" s="30" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>384</v>
+      <c r="A4" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>385</v>
+      <c r="A5" s="30" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>386</v>
+      <c r="A7" s="29" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>387</v>
+      <c r="A8" s="30" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>388</v>
+      <c r="A9" s="30" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
-        <v>389</v>
+      <c r="A10" s="30" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
-        <v>390</v>
+      <c r="A11" s="30" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
-        <v>391</v>
+      <c r="A12" s="30" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>392</v>
+      <c r="A14" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
-        <v>393</v>
+      <c r="A15" s="30" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
-        <v>394</v>
+      <c r="A16" s="30" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
-        <v>395</v>
+      <c r="A17" s="30" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31" t="s">
-        <v>396</v>
+      <c r="A19" s="30" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="s">
-        <v>397</v>
+      <c r="A21" s="29" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
-        <v>398</v>
+      <c r="A22" s="30" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
